--- a/src/HTLN_CUVA_VIBIFieldDataform_0721_speciesfixed.xlsx
+++ b/src/HTLN_CUVA_VIBIFieldDataform_0721_speciesfixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/sbingham_nps_gov/Documents/Documents/1. Projects/1. Heartland Projects/1. Wetlands/Data/VIBI/SentinelWetlands/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRowell\HTLN-Wetlands-Survey123\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="11_7E2218C988BE11B96E48567F4E55B24B2398987E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6395D68D-A7CA-4235-A227-70164A596472}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3839F94-F4DD-4F2B-A404-F0B8A14E73F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTLN_CUVA_VIBIFieldDataform_0" sheetId="2" r:id="rId1"/>
@@ -7210,7 +7210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C968" sqref="C968"/>
     </sheetView>
   </sheetViews>
@@ -7221,6 +7221,7 @@
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
